--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Маршрут</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>17121 м</t>
+  </si>
+  <si>
+    <t>21167 м</t>
+  </si>
+  <si>
+    <t>21888 м</t>
+  </si>
+  <si>
+    <t>22680 м</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,24 +624,33 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C7" s="3">
-        <v>3.1481481481481485E-2</v>
+        <v>3.3287037037037039E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C8" s="3">
-        <v>3.4953703703703702E-2</v>
+        <v>3.6180555555555556E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C9" s="3">
-        <v>3.7268518518518513E-2</v>
+        <v>3.7060185185185189E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Маршрут</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>22680 м</t>
+  </si>
+  <si>
+    <t>16914 м</t>
+  </si>
+  <si>
+    <t>24234 м</t>
+  </si>
+  <si>
+    <t>28652 м</t>
+  </si>
+  <si>
+    <t>17968 м</t>
   </si>
 </sst>
 </file>
@@ -541,7 +553,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,25 +669,28 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C10" s="3">
-        <v>2.8356481481481483E-2</v>
+        <v>2.8067129629629626E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C11" s="3">
-        <v>4.1319444444444443E-2</v>
+        <v>3.9085648148148147E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
-        <v>4.0046296296296295E-2</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -689,8 +704,11 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" s="3">
-        <v>3.1134259259259261E-2</v>
+        <v>3.0428240740740742E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,8 +731,11 @@
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C17" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>4.5763888888888889E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Маршрут</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>17968 м</t>
+  </si>
+  <si>
+    <t>23315 м</t>
+  </si>
+  <si>
+    <t>23840 м</t>
+  </si>
+  <si>
+    <t>26843 м</t>
+  </si>
+  <si>
+    <t>42132 м</t>
   </si>
 </sst>
 </file>
@@ -552,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,13 +703,22 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.0034722222222222E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="C13" s="3">
-        <v>3.9467592592592596E-2</v>
+        <v>3.9560185185185184E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,16 +736,22 @@
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C15" s="3">
-        <v>4.4212962962962961E-2</v>
+        <v>4.431712962962963E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="3">
-        <v>6.7013888888888887E-2</v>
+        <v>6.1712962962962963E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Маршрут</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>42132 м</t>
+  </si>
+  <si>
+    <t>32125 м</t>
+  </si>
+  <si>
+    <t>36565 м</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,16 +775,22 @@
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C18" s="3">
-        <v>4.9421296296296297E-2</v>
+        <v>4.8472222222222222E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="C19" s="3">
-        <v>5.6134259259259266E-2</v>
+        <v>5.7013888888888892E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Маршрут</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>36565 м</t>
+  </si>
+  <si>
+    <t>16281 м</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -797,8 +800,11 @@
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" s="3">
-        <v>2.4884259259259259E-2</v>
+        <v>2.5902777777777775E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Маршрут</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>16281 м</t>
+  </si>
+  <si>
+    <t>13811 м</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,8 +814,11 @@
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C21" s="3">
-        <v>2.5810185185185183E-2</v>
+        <v>2.3124999999999996E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Маршрут</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>13811 м</t>
+  </si>
+  <si>
+    <t>17466 м</t>
+  </si>
+  <si>
+    <t>32335 м</t>
   </si>
 </sst>
 </file>
@@ -577,7 +583,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,16 +831,22 @@
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C22" s="3">
-        <v>2.7083333333333334E-2</v>
+        <v>2.8391203703703707E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C23" s="3">
-        <v>5.5671296296296302E-2</v>
+        <v>4.9166666666666664E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Маршрут</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>32335 м</t>
+  </si>
+  <si>
+    <t>27364 м</t>
+  </si>
+  <si>
+    <t>31322 м</t>
   </si>
 </sst>
 </file>
@@ -582,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,16 +859,22 @@
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C24" s="3">
-        <v>4.4328703703703703E-2</v>
+        <v>4.4247685185185182E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C25" s="3">
-        <v>3.8425925925925926E-2</v>
+        <v>5.2025462962962961E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Маршрут</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>31322 м</t>
+  </si>
+  <si>
+    <t>27082 м</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,8 +884,11 @@
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B26" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C26" s="3">
-        <v>3.6458333333333336E-2</v>
+        <v>4.3750000000000004E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Маршрут</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>27082 м</t>
+  </si>
+  <si>
+    <t>50662 м</t>
+  </si>
+  <si>
+    <t>35524 м</t>
+  </si>
+  <si>
+    <t>22832 м</t>
+  </si>
+  <si>
+    <t>19975 м</t>
   </si>
 </sst>
 </file>
@@ -592,7 +604,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,32 +907,44 @@
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C27" s="3">
-        <v>7.0023148148148154E-2</v>
+        <v>7.3773148148148157E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C28" s="3">
-        <v>2.9282407407407406E-2</v>
+        <v>5.7592592592592591E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C29" s="3">
-        <v>3.3564814814814818E-2</v>
+        <v>3.9560185185185184E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C30" s="3">
-        <v>3.4027777777777775E-2</v>
+        <v>3.2881944444444443E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Маршрут</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>19975 м</t>
+  </si>
+  <si>
+    <t>47680 м</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,8 +954,11 @@
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C31" s="3">
-        <v>7.2685185185185186E-2</v>
+        <v>7.5671296296296306E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Маршрут</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>47680 м</t>
+  </si>
+  <si>
+    <t>42232 м</t>
+  </si>
+  <si>
+    <t>13591 м</t>
   </si>
 </sst>
 </file>
@@ -606,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,16 +971,22 @@
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C32" s="3">
-        <v>6.2152777777777779E-2</v>
+        <v>6.4166666666666664E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C33" s="3">
-        <v>2.3379629629629629E-2</v>
+        <v>2.2812499999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Маршрут</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>13591 м</t>
+  </si>
+  <si>
+    <t>32648 м</t>
+  </si>
+  <si>
+    <t>22819 м</t>
   </si>
 </sst>
 </file>
@@ -613,7 +619,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,16 +999,22 @@
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C34" s="3">
-        <v>5.3009259259259256E-2</v>
+        <v>5.2418981481481476E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C35" s="3">
-        <v>3.2523148148148148E-2</v>
+        <v>3.6423611111111115E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Маршрут</t>
   </si>
@@ -257,6 +257,36 @@
   </si>
   <si>
     <t>22819 м</t>
+  </si>
+  <si>
+    <t>35540 м</t>
+  </si>
+  <si>
+    <t>39401 м</t>
+  </si>
+  <si>
+    <t>31573 м</t>
+  </si>
+  <si>
+    <t>25030 м</t>
+  </si>
+  <si>
+    <t>23126 м</t>
+  </si>
+  <si>
+    <t>18557 м</t>
+  </si>
+  <si>
+    <t>35055 м</t>
+  </si>
+  <si>
+    <t>39428 м</t>
+  </si>
+  <si>
+    <t>21891 м</t>
+  </si>
+  <si>
+    <t>32963 м</t>
   </si>
 </sst>
 </file>
@@ -618,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,80 +1051,110 @@
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C36" s="3">
-        <v>5.3240740740740734E-2</v>
+        <v>5.4490740740740735E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C37" s="3">
-        <v>5.9143518518518519E-2</v>
+        <v>6.2037037037037036E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C38" s="3">
-        <v>5.2662037037037035E-2</v>
+        <v>5.3645833333333337E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C39" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9050925925925926E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C40" s="3">
-        <v>3.7152777777777778E-2</v>
+        <v>3.8055555555555558E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C41" s="3">
-        <v>3.0902777777777779E-2</v>
+        <v>3.1412037037037037E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C42" s="3">
-        <v>5.3240740740740734E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C43" s="3">
-        <v>5.8796296296296298E-2</v>
+        <v>5.8958333333333335E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C44" s="3">
-        <v>3.7962962962962962E-2</v>
+        <v>3.5555555555555556E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C45" s="3">
-        <v>5.1388888888888894E-2</v>
+        <v>5.2824074074074079E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Маршрут</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>32963 м</t>
+  </si>
+  <si>
+    <t>101 автобус</t>
+  </si>
+  <si>
+    <t>38340 м</t>
   </si>
 </sst>
 </file>
@@ -646,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,6 +1163,17 @@
         <v>5.2824074074074079E-2</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Маршрут</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>38340 м</t>
+  </si>
+  <si>
+    <t>102 автобус</t>
+  </si>
+  <si>
+    <t>75695 м</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,6 +1180,17 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3">
+        <v>9.4872685185185171E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Transport Traffic Simulation/Автобусы.xlsx
+++ b/Transport Traffic Simulation/Автобусы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Маршрут</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>75695 м</t>
+  </si>
+  <si>
+    <t>103 автобус</t>
+  </si>
+  <si>
+    <t>79883 м</t>
   </si>
 </sst>
 </file>
@@ -658,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,6 +1197,17 @@
         <v>9.4872685185185171E-2</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="3">
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
